--- a/Code/Results/Cases/Case_3_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9994803137923459</v>
+        <v>1.050234594880861</v>
       </c>
       <c r="D2">
-        <v>1.021499763975629</v>
+        <v>1.055046071215303</v>
       </c>
       <c r="E2">
-        <v>1.005211091856844</v>
+        <v>1.047268018390363</v>
       </c>
       <c r="F2">
-        <v>1.027429098050415</v>
+        <v>1.064593979995573</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043933486826589</v>
+        <v>1.041238722882342</v>
       </c>
       <c r="J2">
-        <v>1.021676579703776</v>
+        <v>1.055268825570934</v>
       </c>
       <c r="K2">
-        <v>1.032667483350649</v>
+        <v>1.057787607566292</v>
       </c>
       <c r="L2">
-        <v>1.016598302171471</v>
+        <v>1.050031131613104</v>
       </c>
       <c r="M2">
-        <v>1.038519083390992</v>
+        <v>1.067309496387584</v>
       </c>
       <c r="N2">
-        <v>1.023127477634897</v>
+        <v>1.056767428344271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007697883488791</v>
+        <v>1.051848024733527</v>
       </c>
       <c r="D3">
-        <v>1.027864299344218</v>
+        <v>1.056302580382626</v>
       </c>
       <c r="E3">
-        <v>1.012108680790837</v>
+        <v>1.048664479952349</v>
       </c>
       <c r="F3">
-        <v>1.034273881863318</v>
+        <v>1.065970914027681</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046367752646968</v>
+        <v>1.041622705300265</v>
       </c>
       <c r="J3">
-        <v>1.02798087373325</v>
+        <v>1.056528613046005</v>
       </c>
       <c r="K3">
-        <v>1.038152645237948</v>
+        <v>1.058856349436392</v>
       </c>
       <c r="L3">
-        <v>1.02258893809336</v>
+        <v>1.051237887165316</v>
       </c>
       <c r="M3">
-        <v>1.044486227817668</v>
+        <v>1.068500259838711</v>
       </c>
       <c r="N3">
-        <v>1.029440724485005</v>
+        <v>1.058029004862056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012845921752323</v>
+        <v>1.052890266349497</v>
       </c>
       <c r="D4">
-        <v>1.031854313508504</v>
+        <v>1.057113884361921</v>
       </c>
       <c r="E4">
-        <v>1.016435859560141</v>
+        <v>1.049566676595772</v>
       </c>
       <c r="F4">
-        <v>1.038568755478151</v>
+        <v>1.066860420077344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047879914334107</v>
+        <v>1.041869011810759</v>
       </c>
       <c r="J4">
-        <v>1.031926639408789</v>
+        <v>1.057341676636966</v>
       </c>
       <c r="K4">
-        <v>1.041582904720755</v>
+        <v>1.05954560124387</v>
       </c>
       <c r="L4">
-        <v>1.026339884149996</v>
+        <v>1.052016809856728</v>
       </c>
       <c r="M4">
-        <v>1.048222949824779</v>
+        <v>1.069268767928383</v>
       </c>
       <c r="N4">
-        <v>1.03339209360039</v>
+        <v>1.058843223096576</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014972086998204</v>
+        <v>1.053328014200277</v>
       </c>
       <c r="D5">
-        <v>1.033502747052071</v>
+        <v>1.057454546151219</v>
       </c>
       <c r="E5">
-        <v>1.018224347968932</v>
+        <v>1.049945630588313</v>
       </c>
       <c r="F5">
-        <v>1.040344039406732</v>
+        <v>1.067234025201292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048501285968471</v>
+        <v>1.041972045486628</v>
       </c>
       <c r="J5">
-        <v>1.033555295486152</v>
+        <v>1.057682992379208</v>
       </c>
       <c r="K5">
-        <v>1.042998065426735</v>
+        <v>1.059834819196454</v>
       </c>
       <c r="L5">
-        <v>1.027888472638433</v>
+        <v>1.052343814036757</v>
       </c>
       <c r="M5">
-        <v>1.049765739280796</v>
+        <v>1.069591377348242</v>
       </c>
       <c r="N5">
-        <v>1.035023062556192</v>
+        <v>1.059185023546321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015326914290851</v>
+        <v>1.053401490198511</v>
       </c>
       <c r="D6">
-        <v>1.033777875260742</v>
+        <v>1.057511720886615</v>
       </c>
       <c r="E6">
-        <v>1.018522897540006</v>
+        <v>1.050009239526047</v>
       </c>
       <c r="F6">
-        <v>1.040640392097069</v>
+        <v>1.067296735217689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048604796160892</v>
+        <v>1.041989315250362</v>
       </c>
       <c r="J6">
-        <v>1.033827036362451</v>
+        <v>1.057740271908653</v>
       </c>
       <c r="K6">
-        <v>1.043234141558755</v>
+        <v>1.059883348467499</v>
       </c>
       <c r="L6">
-        <v>1.028146874287622</v>
+        <v>1.052398692998949</v>
       </c>
       <c r="M6">
-        <v>1.050023176417216</v>
+        <v>1.069645517430833</v>
       </c>
       <c r="N6">
-        <v>1.035295189335704</v>
+        <v>1.059242384419268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012874478185894</v>
+        <v>1.052896117157264</v>
       </c>
       <c r="D7">
-        <v>1.031876451600031</v>
+        <v>1.057118437904874</v>
       </c>
       <c r="E7">
-        <v>1.016459875498853</v>
+        <v>1.049571741481751</v>
       </c>
       <c r="F7">
-        <v>1.038592593583998</v>
+        <v>1.066865413546249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047888272560651</v>
+        <v>1.041870390566231</v>
       </c>
       <c r="J7">
-        <v>1.031948517745164</v>
+        <v>1.057346239254092</v>
       </c>
       <c r="K7">
-        <v>1.041601917974146</v>
+        <v>1.059549467915387</v>
       </c>
       <c r="L7">
-        <v>1.026360685553041</v>
+        <v>1.052021181080517</v>
       </c>
       <c r="M7">
-        <v>1.048243673096055</v>
+        <v>1.069273080494526</v>
       </c>
       <c r="N7">
-        <v>1.033414003006512</v>
+        <v>1.058847792193142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002294082638623</v>
+        <v>1.050780230384715</v>
       </c>
       <c r="D8">
-        <v>1.023678344490539</v>
+        <v>1.055471078885702</v>
       </c>
       <c r="E8">
-        <v>1.007571532674015</v>
+        <v>1.047740255016276</v>
       </c>
       <c r="F8">
-        <v>1.029771262905861</v>
+        <v>1.065059628234114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044769660596636</v>
+        <v>1.04136893943115</v>
       </c>
       <c r="J8">
-        <v>1.023835947084134</v>
+        <v>1.055695016528171</v>
       </c>
       <c r="K8">
-        <v>1.034546852271752</v>
+        <v>1.058149272883501</v>
       </c>
       <c r="L8">
-        <v>1.018649910269598</v>
+        <v>1.050439363818281</v>
       </c>
       <c r="M8">
-        <v>1.040562516303936</v>
+        <v>1.067712337480711</v>
       </c>
       <c r="N8">
-        <v>1.025289911564618</v>
+        <v>1.057194224541552</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9822297205494752</v>
+        <v>1.047037886446619</v>
       </c>
       <c r="D9">
-        <v>1.008162459725625</v>
+        <v>1.052554591122467</v>
       </c>
       <c r="E9">
-        <v>0.9907714517758706</v>
+        <v>1.04450182790506</v>
       </c>
       <c r="F9">
-        <v>1.013107145766299</v>
+        <v>1.061866094761165</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038755056849617</v>
+        <v>1.04046869406247</v>
       </c>
       <c r="J9">
-        <v>1.008425985548995</v>
+        <v>1.052768914763738</v>
       </c>
       <c r="K9">
-        <v>1.021124480444097</v>
+        <v>1.055664094829316</v>
       </c>
       <c r="L9">
-        <v>1.004016051543735</v>
+        <v>1.047636918789448</v>
       </c>
       <c r="M9">
-        <v>1.025991088701067</v>
+        <v>1.06494654019972</v>
       </c>
       <c r="N9">
-        <v>1.009858066116552</v>
+        <v>1.054263967376985</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9676999956157695</v>
+        <v>1.044533044456375</v>
       </c>
       <c r="D10">
-        <v>0.9969598014815831</v>
+        <v>1.050600688886368</v>
       </c>
       <c r="E10">
-        <v>0.9786532900013543</v>
+        <v>1.042334932936206</v>
       </c>
       <c r="F10">
-        <v>1.001097637943483</v>
+        <v>1.059728899226115</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034337297971942</v>
+        <v>1.039857192816268</v>
       </c>
       <c r="J10">
-        <v>0.9972564477809105</v>
+        <v>1.050806667263452</v>
       </c>
       <c r="K10">
-        <v>1.011384165470745</v>
+        <v>1.053994919374246</v>
       </c>
       <c r="L10">
-        <v>0.9934189672521755</v>
+        <v>1.045758049190206</v>
       </c>
       <c r="M10">
-        <v>1.01544710243877</v>
+        <v>1.063091805798621</v>
       </c>
       <c r="N10">
-        <v>0.9986726663236728</v>
+        <v>1.052298933260176</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9610814384109825</v>
+        <v>1.043445924086965</v>
       </c>
       <c r="D11">
-        <v>0.9918679208757374</v>
+        <v>1.049752263488124</v>
       </c>
       <c r="E11">
-        <v>0.9731471815546037</v>
+        <v>1.041394653826493</v>
       </c>
       <c r="F11">
-        <v>0.9956445379553361</v>
+        <v>1.058801433721245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032311812606337</v>
+        <v>1.039589680741166</v>
       </c>
       <c r="J11">
-        <v>0.9921679473095647</v>
+        <v>1.049954158166301</v>
       </c>
       <c r="K11">
-        <v>1.006944843223383</v>
+        <v>1.053269122788169</v>
       </c>
       <c r="L11">
-        <v>0.9885939143137369</v>
+        <v>1.044941873040758</v>
       </c>
       <c r="M11">
-        <v>1.010649062003198</v>
+        <v>1.06228601696209</v>
       </c>
       <c r="N11">
-        <v>0.9935769395979983</v>
+        <v>1.051445213502322</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9585684671078777</v>
+        <v>1.043041730605073</v>
       </c>
       <c r="D12">
-        <v>0.989936598476008</v>
+        <v>1.049436755953828</v>
       </c>
       <c r="E12">
-        <v>0.9710589418456189</v>
+        <v>1.041045082751518</v>
       </c>
       <c r="F12">
-        <v>0.9935770605844908</v>
+        <v>1.058456615880131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031540959127591</v>
+        <v>1.039489901813548</v>
       </c>
       <c r="J12">
-        <v>0.9902360175442363</v>
+        <v>1.049637062194951</v>
       </c>
       <c r="K12">
-        <v>1.005259170789683</v>
+        <v>1.052999066466246</v>
       </c>
       <c r="L12">
-        <v>0.986762435317231</v>
+        <v>1.044638307820684</v>
       </c>
       <c r="M12">
-        <v>1.008828357257579</v>
+        <v>1.061986301109494</v>
       </c>
       <c r="N12">
-        <v>0.9916422662708079</v>
+        <v>1.051127667218322</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9591100721698013</v>
+        <v>1.043128449254648</v>
       </c>
       <c r="D13">
-        <v>0.9903527489679733</v>
+        <v>1.049504450018713</v>
       </c>
       <c r="E13">
-        <v>0.9715088966208583</v>
+        <v>1.041120081089643</v>
       </c>
       <c r="F13">
-        <v>0.9940225100204643</v>
+        <v>1.058530594908205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031707174969953</v>
+        <v>1.039511323474186</v>
       </c>
       <c r="J13">
-        <v>0.9906523865220919</v>
+        <v>1.049705100238722</v>
       </c>
       <c r="K13">
-        <v>1.00562247474745</v>
+        <v>1.053057015544502</v>
       </c>
       <c r="L13">
-        <v>0.9871571353084898</v>
+        <v>1.044703441876083</v>
       </c>
       <c r="M13">
-        <v>1.009220710145431</v>
+        <v>1.062050609857847</v>
       </c>
       <c r="N13">
-        <v>0.99205922654037</v>
+        <v>1.051195801883919</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9608748623421253</v>
+        <v>1.043412521323545</v>
       </c>
       <c r="D14">
-        <v>0.991709116298426</v>
+        <v>1.049726191020906</v>
       </c>
       <c r="E14">
-        <v>0.9729754708683352</v>
+        <v>1.041365764540443</v>
       </c>
       <c r="F14">
-        <v>0.9954745204659147</v>
+        <v>1.05877293746382</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032248480993469</v>
+        <v>1.039581441428117</v>
       </c>
       <c r="J14">
-        <v>0.9920091319209488</v>
+        <v>1.049927955863807</v>
       </c>
       <c r="K14">
-        <v>1.006806275407608</v>
+        <v>1.053246809340415</v>
       </c>
       <c r="L14">
-        <v>0.9884433476665417</v>
+        <v>1.044916788475591</v>
       </c>
       <c r="M14">
-        <v>1.010499369968708</v>
+        <v>1.062261250765908</v>
       </c>
       <c r="N14">
-        <v>0.9934178986733143</v>
+        <v>1.051418973989554</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9619548043319609</v>
+        <v>1.043587495653797</v>
       </c>
       <c r="D15">
-        <v>0.9925394004842174</v>
+        <v>1.049862764419499</v>
       </c>
       <c r="E15">
-        <v>0.9738732400246775</v>
+        <v>1.041517096929048</v>
       </c>
       <c r="F15">
-        <v>0.9963634643795048</v>
+        <v>1.058922210600631</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032579494849052</v>
+        <v>1.039624588587302</v>
       </c>
       <c r="J15">
-        <v>0.9928393950596227</v>
+        <v>1.05006520650662</v>
       </c>
       <c r="K15">
-        <v>1.007530679075339</v>
+        <v>1.053363685962941</v>
       </c>
       <c r="L15">
-        <v>0.9892305052067999</v>
+        <v>1.045048184958668</v>
       </c>
       <c r="M15">
-        <v>1.011281976803506</v>
+        <v>1.062390979015553</v>
       </c>
       <c r="N15">
-        <v>0.9942493408808777</v>
+        <v>1.051556419544022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9681319133718757</v>
+        <v>1.044605139217731</v>
       </c>
       <c r="D16">
-        <v>0.9972923460163357</v>
+        <v>1.050656945405485</v>
       </c>
       <c r="E16">
-        <v>0.9790129192587553</v>
+        <v>1.042397293259799</v>
       </c>
       <c r="F16">
-        <v>1.00145388917453</v>
+        <v>1.059790408231366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034469220989024</v>
+        <v>1.039874888965031</v>
       </c>
       <c r="J16">
-        <v>0.9975885194733877</v>
+        <v>1.050863184819083</v>
       </c>
       <c r="K16">
-        <v>1.011673838627994</v>
+        <v>1.054043023567927</v>
       </c>
       <c r="L16">
-        <v>0.9937339037563211</v>
+        <v>1.045812160336099</v>
       </c>
       <c r="M16">
-        <v>1.015760342008666</v>
+        <v>1.063145226286724</v>
       </c>
       <c r="N16">
-        <v>0.9990052095960426</v>
+        <v>1.052355531077218</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9719155149092814</v>
+        <v>1.045242800516129</v>
       </c>
       <c r="D17">
-        <v>1.000206723453015</v>
+        <v>1.051154473203779</v>
       </c>
       <c r="E17">
-        <v>0.9821648672520282</v>
+        <v>1.042948875443516</v>
       </c>
       <c r="F17">
-        <v>1.004576652172984</v>
+        <v>1.060334451983399</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035623410333937</v>
+        <v>1.040031163179848</v>
       </c>
       <c r="J17">
-        <v>1.000497424585498</v>
+        <v>1.051362968050216</v>
       </c>
       <c r="K17">
-        <v>1.01421112902901</v>
+        <v>1.054468336885106</v>
       </c>
       <c r="L17">
-        <v>0.9964930084745618</v>
+        <v>1.046290676331079</v>
       </c>
       <c r="M17">
-        <v>1.018504909148256</v>
+        <v>1.063617623535763</v>
       </c>
       <c r="N17">
-        <v>1.001918245687068</v>
+        <v>1.052856024057865</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.974091271568007</v>
+        <v>1.045614496457391</v>
       </c>
       <c r="D18">
-        <v>1.001883653153885</v>
+        <v>1.051444444356464</v>
       </c>
       <c r="E18">
-        <v>0.9839786781049324</v>
+        <v>1.0432704117214</v>
       </c>
       <c r="F18">
-        <v>1.006374001475483</v>
+        <v>1.060651586695044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036285887077147</v>
+        <v>1.040122052289655</v>
       </c>
       <c r="J18">
-        <v>1.002170121258933</v>
+        <v>1.051654209459934</v>
       </c>
       <c r="K18">
-        <v>1.015669951312521</v>
+        <v>1.054716122858782</v>
       </c>
       <c r="L18">
-        <v>0.9980798123296281</v>
+        <v>1.046569535053008</v>
       </c>
       <c r="M18">
-        <v>1.020083610964772</v>
+        <v>1.063892907141546</v>
       </c>
       <c r="N18">
-        <v>1.003593317781641</v>
+        <v>1.053147679063791</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9748280150947654</v>
+        <v>1.045741194630028</v>
       </c>
       <c r="D19">
-        <v>1.002451650701048</v>
+        <v>1.051543278529197</v>
       </c>
       <c r="E19">
-        <v>0.9845930725369513</v>
+        <v>1.043380014945445</v>
       </c>
       <c r="F19">
-        <v>1.006982873330921</v>
+        <v>1.060759688310752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036509996883019</v>
+        <v>1.040152998614314</v>
       </c>
       <c r="J19">
-        <v>1.002736504810172</v>
+        <v>1.051753469102292</v>
       </c>
       <c r="K19">
-        <v>1.016163882221468</v>
+        <v>1.054800562156014</v>
       </c>
       <c r="L19">
-        <v>0.9986171531125643</v>
+        <v>1.046664576255898</v>
       </c>
       <c r="M19">
-        <v>1.020618249444561</v>
+        <v>1.063986728260651</v>
       </c>
       <c r="N19">
-        <v>1.004160505662487</v>
+        <v>1.053247079666227</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9715128291240481</v>
+        <v>1.045174410518281</v>
       </c>
       <c r="D20">
-        <v>0.9998964403677981</v>
+        <v>1.051101116861959</v>
       </c>
       <c r="E20">
-        <v>0.981829272420349</v>
+        <v>1.042889715849966</v>
       </c>
       <c r="F20">
-        <v>1.004244129353004</v>
+        <v>1.060276101655609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035500698595573</v>
+        <v>1.040014423661484</v>
       </c>
       <c r="J20">
-        <v>1.000187837754779</v>
+        <v>1.051309374414015</v>
       </c>
       <c r="K20">
-        <v>1.013941110991353</v>
+        <v>1.054422735057971</v>
       </c>
       <c r="L20">
-        <v>0.9961993386746107</v>
+        <v>1.04623936217488</v>
       </c>
       <c r="M20">
-        <v>1.018212759141486</v>
+        <v>1.06356696649557</v>
       </c>
       <c r="N20">
-        <v>1.001608219207539</v>
+        <v>1.052802354312554</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9603567289121011</v>
+        <v>1.043328880002032</v>
       </c>
       <c r="D21">
-        <v>0.9913108363261026</v>
+        <v>1.049660903951503</v>
       </c>
       <c r="E21">
-        <v>0.9725448253810016</v>
+        <v>1.04129342550682</v>
       </c>
       <c r="F21">
-        <v>0.9950481324560171</v>
+        <v>1.058701582409346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032089604431511</v>
+        <v>1.039560804865728</v>
       </c>
       <c r="J21">
-        <v>0.9916107939762523</v>
+        <v>1.049862342548953</v>
       </c>
       <c r="K21">
-        <v>1.006458718915202</v>
+        <v>1.053190932644213</v>
       </c>
       <c r="L21">
-        <v>0.9880657060663842</v>
+        <v>1.044853974358974</v>
       </c>
       <c r="M21">
-        <v>1.01012393073101</v>
+        <v>1.062199233650183</v>
       </c>
       <c r="N21">
-        <v>0.9930189950430464</v>
+        <v>1.051353267496266</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9530235430939077</v>
+        <v>1.042166267594911</v>
       </c>
       <c r="D22">
-        <v>0.9856791672605002</v>
+        <v>1.048753271617536</v>
       </c>
       <c r="E22">
-        <v>0.9664558573891515</v>
+        <v>1.040287978859205</v>
       </c>
       <c r="F22">
-        <v>0.9890210962115145</v>
+        <v>1.057709787943378</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029836920309672</v>
+        <v>1.039273205451707</v>
       </c>
       <c r="J22">
-        <v>0.9859735910015064</v>
+        <v>1.048950008321402</v>
       </c>
       <c r="K22">
-        <v>1.001539762889496</v>
+        <v>1.052413766126721</v>
       </c>
       <c r="L22">
-        <v>0.9827224629530296</v>
+        <v>1.043980601414639</v>
       </c>
       <c r="M22">
-        <v>1.004813230567214</v>
+        <v>1.061336909634376</v>
       </c>
       <c r="N22">
-        <v>0.9873737865934805</v>
+        <v>1.050439637649466</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9569432654205657</v>
+        <v>1.042782808087952</v>
       </c>
       <c r="D23">
-        <v>0.9886881689794659</v>
+        <v>1.049234627722804</v>
       </c>
       <c r="E23">
-        <v>0.9697091228354179</v>
+        <v>1.04082115843281</v>
       </c>
       <c r="F23">
-        <v>0.9922408631452071</v>
+        <v>1.058235733441618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031041942139801</v>
+        <v>1.039425895077247</v>
       </c>
       <c r="J23">
-        <v>0.9889866441214399</v>
+        <v>1.049433896597409</v>
       </c>
       <c r="K23">
-        <v>1.004169001572877</v>
+        <v>1.052826013696927</v>
       </c>
       <c r="L23">
-        <v>0.9855781481207979</v>
+        <v>1.044443816126847</v>
       </c>
       <c r="M23">
-        <v>1.007651196890608</v>
+        <v>1.061794271783112</v>
       </c>
       <c r="N23">
-        <v>0.9903911185944461</v>
+        <v>1.050924213102328</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9716948813736013</v>
+        <v>1.045205313759596</v>
       </c>
       <c r="D24">
-        <v>1.000036714667637</v>
+        <v>1.051125227002039</v>
       </c>
       <c r="E24">
-        <v>0.9819809892027079</v>
+        <v>1.042916448118089</v>
       </c>
       <c r="F24">
-        <v>1.004394456303177</v>
+        <v>1.060302468265398</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035556179827957</v>
+        <v>1.040021988342003</v>
       </c>
       <c r="J24">
-        <v>1.000327800648513</v>
+        <v>1.051333591917129</v>
       </c>
       <c r="K24">
-        <v>1.014063185585894</v>
+        <v>1.054443341463421</v>
       </c>
       <c r="L24">
-        <v>0.9963321047825473</v>
+        <v>1.04626254961072</v>
       </c>
       <c r="M24">
-        <v>1.018344837363833</v>
+        <v>1.063589857028029</v>
       </c>
       <c r="N24">
-        <v>1.001748380864636</v>
+        <v>1.0528266062073</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9876040276119796</v>
+        <v>1.048007079868412</v>
       </c>
       <c r="D25">
-        <v>1.012313750172178</v>
+        <v>1.05331023067313</v>
       </c>
       <c r="E25">
-        <v>0.9952640846367419</v>
+        <v>1.045340404265102</v>
       </c>
       <c r="F25">
-        <v>1.017561951280643</v>
+        <v>1.062693108164003</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040377120219329</v>
+        <v>1.040703415561613</v>
       </c>
       <c r="J25">
-        <v>1.012555890353901</v>
+        <v>1.053527377337078</v>
       </c>
       <c r="K25">
-        <v>1.024723871763188</v>
+        <v>1.056308728328137</v>
       </c>
       <c r="L25">
-        <v>1.007936367182839</v>
+        <v>1.048363249560071</v>
       </c>
       <c r="M25">
-        <v>1.029893623225472</v>
+        <v>1.065663451235051</v>
       </c>
       <c r="N25">
-        <v>1.013993835859988</v>
+        <v>1.055023507054176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050234594880861</v>
+        <v>0.9994803137923456</v>
       </c>
       <c r="D2">
-        <v>1.055046071215303</v>
+        <v>1.021499763975629</v>
       </c>
       <c r="E2">
-        <v>1.047268018390363</v>
+        <v>1.005211091856844</v>
       </c>
       <c r="F2">
-        <v>1.064593979995573</v>
+        <v>1.027429098050416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041238722882342</v>
+        <v>1.043933486826589</v>
       </c>
       <c r="J2">
-        <v>1.055268825570934</v>
+        <v>1.021676579703776</v>
       </c>
       <c r="K2">
-        <v>1.057787607566292</v>
+        <v>1.032667483350649</v>
       </c>
       <c r="L2">
-        <v>1.050031131613104</v>
+        <v>1.01659830217147</v>
       </c>
       <c r="M2">
-        <v>1.067309496387584</v>
+        <v>1.038519083390992</v>
       </c>
       <c r="N2">
-        <v>1.056767428344271</v>
+        <v>1.023127477634897</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051848024733527</v>
+        <v>1.007697883488789</v>
       </c>
       <c r="D3">
-        <v>1.056302580382626</v>
+        <v>1.027864299344216</v>
       </c>
       <c r="E3">
-        <v>1.048664479952349</v>
+        <v>1.012108680790835</v>
       </c>
       <c r="F3">
-        <v>1.065970914027681</v>
+        <v>1.034273881863315</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041622705300265</v>
+        <v>1.046367752646967</v>
       </c>
       <c r="J3">
-        <v>1.056528613046005</v>
+        <v>1.027980873733247</v>
       </c>
       <c r="K3">
-        <v>1.058856349436392</v>
+        <v>1.038152645237945</v>
       </c>
       <c r="L3">
-        <v>1.051237887165316</v>
+        <v>1.022588938093357</v>
       </c>
       <c r="M3">
-        <v>1.068500259838711</v>
+        <v>1.044486227817665</v>
       </c>
       <c r="N3">
-        <v>1.058029004862056</v>
+        <v>1.029440724485003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052890266349497</v>
+        <v>1.012845921752321</v>
       </c>
       <c r="D4">
-        <v>1.057113884361921</v>
+        <v>1.031854313508503</v>
       </c>
       <c r="E4">
-        <v>1.049566676595772</v>
+        <v>1.01643585956014</v>
       </c>
       <c r="F4">
-        <v>1.066860420077344</v>
+        <v>1.038568755478151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041869011810759</v>
+        <v>1.047879914334106</v>
       </c>
       <c r="J4">
-        <v>1.057341676636966</v>
+        <v>1.031926639408788</v>
       </c>
       <c r="K4">
-        <v>1.05954560124387</v>
+        <v>1.041582904720754</v>
       </c>
       <c r="L4">
-        <v>1.052016809856728</v>
+        <v>1.026339884149994</v>
       </c>
       <c r="M4">
-        <v>1.069268767928383</v>
+        <v>1.048222949824779</v>
       </c>
       <c r="N4">
-        <v>1.058843223096576</v>
+        <v>1.033392093600388</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053328014200277</v>
+        <v>1.014972086998204</v>
       </c>
       <c r="D5">
-        <v>1.057454546151219</v>
+        <v>1.03350274705207</v>
       </c>
       <c r="E5">
-        <v>1.049945630588313</v>
+        <v>1.018224347968931</v>
       </c>
       <c r="F5">
-        <v>1.067234025201292</v>
+        <v>1.040344039406732</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041972045486628</v>
+        <v>1.048501285968471</v>
       </c>
       <c r="J5">
-        <v>1.057682992379208</v>
+        <v>1.033555295486152</v>
       </c>
       <c r="K5">
-        <v>1.059834819196454</v>
+        <v>1.042998065426734</v>
       </c>
       <c r="L5">
-        <v>1.052343814036757</v>
+        <v>1.027888472638433</v>
       </c>
       <c r="M5">
-        <v>1.069591377348242</v>
+        <v>1.049765739280796</v>
       </c>
       <c r="N5">
-        <v>1.059185023546321</v>
+        <v>1.035023062556192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053401490198511</v>
+        <v>1.015326914290852</v>
       </c>
       <c r="D6">
-        <v>1.057511720886615</v>
+        <v>1.033777875260742</v>
       </c>
       <c r="E6">
-        <v>1.050009239526047</v>
+        <v>1.018522897540007</v>
       </c>
       <c r="F6">
-        <v>1.067296735217689</v>
+        <v>1.040640392097069</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041989315250362</v>
+        <v>1.048604796160892</v>
       </c>
       <c r="J6">
-        <v>1.057740271908653</v>
+        <v>1.033827036362452</v>
       </c>
       <c r="K6">
-        <v>1.059883348467499</v>
+        <v>1.043234141558755</v>
       </c>
       <c r="L6">
-        <v>1.052398692998949</v>
+        <v>1.028146874287623</v>
       </c>
       <c r="M6">
-        <v>1.069645517430833</v>
+        <v>1.050023176417217</v>
       </c>
       <c r="N6">
-        <v>1.059242384419268</v>
+        <v>1.035295189335705</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052896117157264</v>
+        <v>1.012874478185895</v>
       </c>
       <c r="D7">
-        <v>1.057118437904874</v>
+        <v>1.031876451600032</v>
       </c>
       <c r="E7">
-        <v>1.049571741481751</v>
+        <v>1.016459875498854</v>
       </c>
       <c r="F7">
-        <v>1.066865413546249</v>
+        <v>1.038592593583999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041870390566231</v>
+        <v>1.047888272560651</v>
       </c>
       <c r="J7">
-        <v>1.057346239254092</v>
+        <v>1.031948517745165</v>
       </c>
       <c r="K7">
-        <v>1.059549467915387</v>
+        <v>1.041601917974147</v>
       </c>
       <c r="L7">
-        <v>1.052021181080517</v>
+        <v>1.026360685553042</v>
       </c>
       <c r="M7">
-        <v>1.069273080494526</v>
+        <v>1.048243673096056</v>
       </c>
       <c r="N7">
-        <v>1.058847792193142</v>
+        <v>1.033414003006513</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050780230384715</v>
+        <v>1.002294082638621</v>
       </c>
       <c r="D8">
-        <v>1.055471078885702</v>
+        <v>1.023678344490537</v>
       </c>
       <c r="E8">
-        <v>1.047740255016276</v>
+        <v>1.007571532674013</v>
       </c>
       <c r="F8">
-        <v>1.065059628234114</v>
+        <v>1.029771262905859</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04136893943115</v>
+        <v>1.044769660596635</v>
       </c>
       <c r="J8">
-        <v>1.055695016528171</v>
+        <v>1.023835947084132</v>
       </c>
       <c r="K8">
-        <v>1.058149272883501</v>
+        <v>1.03454685227175</v>
       </c>
       <c r="L8">
-        <v>1.050439363818281</v>
+        <v>1.018649910269596</v>
       </c>
       <c r="M8">
-        <v>1.067712337480711</v>
+        <v>1.040562516303935</v>
       </c>
       <c r="N8">
-        <v>1.057194224541552</v>
+        <v>1.025289911564616</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047037886446619</v>
+        <v>0.9822297205494763</v>
       </c>
       <c r="D9">
-        <v>1.052554591122467</v>
+        <v>1.008162459725626</v>
       </c>
       <c r="E9">
-        <v>1.04450182790506</v>
+        <v>0.9907714517758713</v>
       </c>
       <c r="F9">
-        <v>1.061866094761165</v>
+        <v>1.0131071457663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04046869406247</v>
+        <v>1.038755056849618</v>
       </c>
       <c r="J9">
-        <v>1.052768914763738</v>
+        <v>1.008425985548997</v>
       </c>
       <c r="K9">
-        <v>1.055664094829316</v>
+        <v>1.021124480444098</v>
       </c>
       <c r="L9">
-        <v>1.047636918789448</v>
+        <v>1.004016051543736</v>
       </c>
       <c r="M9">
-        <v>1.06494654019972</v>
+        <v>1.025991088701067</v>
       </c>
       <c r="N9">
-        <v>1.054263967376985</v>
+        <v>1.009858066116553</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044533044456375</v>
+        <v>0.9676999956157706</v>
       </c>
       <c r="D10">
-        <v>1.050600688886368</v>
+        <v>0.9969598014815839</v>
       </c>
       <c r="E10">
-        <v>1.042334932936206</v>
+        <v>0.9786532900013553</v>
       </c>
       <c r="F10">
-        <v>1.059728899226115</v>
+        <v>1.001097637943484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039857192816268</v>
+        <v>1.034337297971942</v>
       </c>
       <c r="J10">
-        <v>1.050806667263452</v>
+        <v>0.9972564477809114</v>
       </c>
       <c r="K10">
-        <v>1.053994919374246</v>
+        <v>1.011384165470745</v>
       </c>
       <c r="L10">
-        <v>1.045758049190206</v>
+        <v>0.9934189672521764</v>
       </c>
       <c r="M10">
-        <v>1.063091805798621</v>
+        <v>1.015447102438771</v>
       </c>
       <c r="N10">
-        <v>1.052298933260176</v>
+        <v>0.9986726663236735</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043445924086965</v>
+        <v>0.9610814384109809</v>
       </c>
       <c r="D11">
-        <v>1.049752263488124</v>
+        <v>0.9918679208757364</v>
       </c>
       <c r="E11">
-        <v>1.041394653826493</v>
+        <v>0.9731471815546023</v>
       </c>
       <c r="F11">
-        <v>1.058801433721245</v>
+        <v>0.9956445379553354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039589680741166</v>
+        <v>1.032311812606336</v>
       </c>
       <c r="J11">
-        <v>1.049954158166301</v>
+        <v>0.992167947309563</v>
       </c>
       <c r="K11">
-        <v>1.053269122788169</v>
+        <v>1.006944843223382</v>
       </c>
       <c r="L11">
-        <v>1.044941873040758</v>
+        <v>0.9885939143137354</v>
       </c>
       <c r="M11">
-        <v>1.06228601696209</v>
+        <v>1.010649062003197</v>
       </c>
       <c r="N11">
-        <v>1.051445213502322</v>
+        <v>0.9935769395979969</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043041730605073</v>
+        <v>0.958568467107875</v>
       </c>
       <c r="D12">
-        <v>1.049436755953828</v>
+        <v>0.9899365984760058</v>
       </c>
       <c r="E12">
-        <v>1.041045082751518</v>
+        <v>0.9710589418456166</v>
       </c>
       <c r="F12">
-        <v>1.058456615880131</v>
+        <v>0.9935770605844887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039489901813548</v>
+        <v>1.03154095912759</v>
       </c>
       <c r="J12">
-        <v>1.049637062194951</v>
+        <v>0.990236017544234</v>
       </c>
       <c r="K12">
-        <v>1.052999066466246</v>
+        <v>1.005259170789681</v>
       </c>
       <c r="L12">
-        <v>1.044638307820684</v>
+        <v>0.9867624353172287</v>
       </c>
       <c r="M12">
-        <v>1.061986301109494</v>
+        <v>1.008828357257576</v>
       </c>
       <c r="N12">
-        <v>1.051127667218322</v>
+        <v>0.9916422662708053</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043128449254648</v>
+        <v>0.9591100721698025</v>
       </c>
       <c r="D13">
-        <v>1.049504450018713</v>
+        <v>0.9903527489679744</v>
       </c>
       <c r="E13">
-        <v>1.041120081089643</v>
+        <v>0.9715088966208596</v>
       </c>
       <c r="F13">
-        <v>1.058530594908205</v>
+        <v>0.9940225100204654</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039511323474186</v>
+        <v>1.031707174969954</v>
       </c>
       <c r="J13">
-        <v>1.049705100238722</v>
+        <v>0.9906523865220932</v>
       </c>
       <c r="K13">
-        <v>1.053057015544502</v>
+        <v>1.005622474747451</v>
       </c>
       <c r="L13">
-        <v>1.044703441876083</v>
+        <v>0.9871571353084909</v>
       </c>
       <c r="M13">
-        <v>1.062050609857847</v>
+        <v>1.009220710145432</v>
       </c>
       <c r="N13">
-        <v>1.051195801883919</v>
+        <v>0.9920592265403715</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043412521323545</v>
+        <v>0.9608748623421253</v>
       </c>
       <c r="D14">
-        <v>1.049726191020906</v>
+        <v>0.9917091162984262</v>
       </c>
       <c r="E14">
-        <v>1.041365764540443</v>
+        <v>0.9729754708683352</v>
       </c>
       <c r="F14">
-        <v>1.05877293746382</v>
+        <v>0.9954745204659148</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039581441428117</v>
+        <v>1.032248480993469</v>
       </c>
       <c r="J14">
-        <v>1.049927955863807</v>
+        <v>0.9920091319209489</v>
       </c>
       <c r="K14">
-        <v>1.053246809340415</v>
+        <v>1.006806275407608</v>
       </c>
       <c r="L14">
-        <v>1.044916788475591</v>
+        <v>0.9884433476665417</v>
       </c>
       <c r="M14">
-        <v>1.062261250765908</v>
+        <v>1.010499369968708</v>
       </c>
       <c r="N14">
-        <v>1.051418973989554</v>
+        <v>0.9934178986733144</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043587495653797</v>
+        <v>0.9619548043319607</v>
       </c>
       <c r="D15">
-        <v>1.049862764419499</v>
+        <v>0.9925394004842166</v>
       </c>
       <c r="E15">
-        <v>1.041517096929048</v>
+        <v>0.9738732400246768</v>
       </c>
       <c r="F15">
-        <v>1.058922210600631</v>
+        <v>0.996363464379504</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039624588587302</v>
+        <v>1.032579494849051</v>
       </c>
       <c r="J15">
-        <v>1.05006520650662</v>
+        <v>0.9928393950596223</v>
       </c>
       <c r="K15">
-        <v>1.053363685962941</v>
+        <v>1.007530679075339</v>
       </c>
       <c r="L15">
-        <v>1.045048184958668</v>
+        <v>0.9892305052067991</v>
       </c>
       <c r="M15">
-        <v>1.062390979015553</v>
+        <v>1.011281976803505</v>
       </c>
       <c r="N15">
-        <v>1.051556419544022</v>
+        <v>0.9942493408808775</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044605139217731</v>
+        <v>0.968131913371877</v>
       </c>
       <c r="D16">
-        <v>1.050656945405485</v>
+        <v>0.9972923460163371</v>
       </c>
       <c r="E16">
-        <v>1.042397293259799</v>
+        <v>0.9790129192587567</v>
       </c>
       <c r="F16">
-        <v>1.059790408231366</v>
+        <v>1.001453889174531</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039874888965031</v>
+        <v>1.034469220989024</v>
       </c>
       <c r="J16">
-        <v>1.050863184819083</v>
+        <v>0.9975885194733889</v>
       </c>
       <c r="K16">
-        <v>1.054043023567927</v>
+        <v>1.011673838627995</v>
       </c>
       <c r="L16">
-        <v>1.045812160336099</v>
+        <v>0.9937339037563224</v>
       </c>
       <c r="M16">
-        <v>1.063145226286724</v>
+        <v>1.015760342008667</v>
       </c>
       <c r="N16">
-        <v>1.052355531077218</v>
+        <v>0.9990052095960439</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045242800516129</v>
+        <v>0.9719155149092805</v>
       </c>
       <c r="D17">
-        <v>1.051154473203779</v>
+        <v>1.000206723453014</v>
       </c>
       <c r="E17">
-        <v>1.042948875443516</v>
+        <v>0.9821648672520276</v>
       </c>
       <c r="F17">
-        <v>1.060334451983399</v>
+        <v>1.004576652172983</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040031163179848</v>
+        <v>1.035623410333937</v>
       </c>
       <c r="J17">
-        <v>1.051362968050216</v>
+        <v>1.000497424585498</v>
       </c>
       <c r="K17">
-        <v>1.054468336885106</v>
+        <v>1.014211129029009</v>
       </c>
       <c r="L17">
-        <v>1.046290676331079</v>
+        <v>0.9964930084745613</v>
       </c>
       <c r="M17">
-        <v>1.063617623535763</v>
+        <v>1.018504909148255</v>
       </c>
       <c r="N17">
-        <v>1.052856024057865</v>
+        <v>1.001918245687067</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045614496457391</v>
+        <v>0.974091271568007</v>
       </c>
       <c r="D18">
-        <v>1.051444444356464</v>
+        <v>1.001883653153885</v>
       </c>
       <c r="E18">
-        <v>1.0432704117214</v>
+        <v>0.9839786781049327</v>
       </c>
       <c r="F18">
-        <v>1.060651586695044</v>
+        <v>1.006374001475483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040122052289655</v>
+        <v>1.036285887077147</v>
       </c>
       <c r="J18">
-        <v>1.051654209459934</v>
+        <v>1.002170121258933</v>
       </c>
       <c r="K18">
-        <v>1.054716122858782</v>
+        <v>1.015669951312522</v>
       </c>
       <c r="L18">
-        <v>1.046569535053008</v>
+        <v>0.9980798123296283</v>
       </c>
       <c r="M18">
-        <v>1.063892907141546</v>
+        <v>1.020083610964772</v>
       </c>
       <c r="N18">
-        <v>1.053147679063791</v>
+        <v>1.003593317781641</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045741194630028</v>
+        <v>0.974828015094765</v>
       </c>
       <c r="D19">
-        <v>1.051543278529197</v>
+        <v>1.002451650701047</v>
       </c>
       <c r="E19">
-        <v>1.043380014945445</v>
+        <v>0.9845930725369505</v>
       </c>
       <c r="F19">
-        <v>1.060759688310752</v>
+        <v>1.006982873330921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040152998614314</v>
+        <v>1.036509996883019</v>
       </c>
       <c r="J19">
-        <v>1.051753469102292</v>
+        <v>1.002736504810172</v>
       </c>
       <c r="K19">
-        <v>1.054800562156014</v>
+        <v>1.016163882221468</v>
       </c>
       <c r="L19">
-        <v>1.046664576255898</v>
+        <v>0.9986171531125638</v>
       </c>
       <c r="M19">
-        <v>1.063986728260651</v>
+        <v>1.020618249444561</v>
       </c>
       <c r="N19">
-        <v>1.053247079666227</v>
+        <v>1.004160505662486</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045174410518281</v>
+        <v>0.9715128291240492</v>
       </c>
       <c r="D20">
-        <v>1.051101116861959</v>
+        <v>0.999896440367799</v>
       </c>
       <c r="E20">
-        <v>1.042889715849966</v>
+        <v>0.9818292724203505</v>
       </c>
       <c r="F20">
-        <v>1.060276101655609</v>
+        <v>1.004244129353005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040014423661484</v>
+        <v>1.035500698595573</v>
       </c>
       <c r="J20">
-        <v>1.051309374414015</v>
+        <v>1.00018783775478</v>
       </c>
       <c r="K20">
-        <v>1.054422735057971</v>
+        <v>1.013941110991354</v>
       </c>
       <c r="L20">
-        <v>1.04623936217488</v>
+        <v>0.9961993386746119</v>
       </c>
       <c r="M20">
-        <v>1.06356696649557</v>
+        <v>1.018212759141486</v>
       </c>
       <c r="N20">
-        <v>1.052802354312554</v>
+        <v>1.00160821920754</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043328880002032</v>
+        <v>0.9603567289121</v>
       </c>
       <c r="D21">
-        <v>1.049660903951503</v>
+        <v>0.9913108363261015</v>
       </c>
       <c r="E21">
-        <v>1.04129342550682</v>
+        <v>0.9725448253810002</v>
       </c>
       <c r="F21">
-        <v>1.058701582409346</v>
+        <v>0.995048132456016</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039560804865728</v>
+        <v>1.032089604431511</v>
       </c>
       <c r="J21">
-        <v>1.049862342548953</v>
+        <v>0.9916107939762512</v>
       </c>
       <c r="K21">
-        <v>1.053190932644213</v>
+        <v>1.006458718915201</v>
       </c>
       <c r="L21">
-        <v>1.044853974358974</v>
+        <v>0.9880657060663828</v>
       </c>
       <c r="M21">
-        <v>1.062199233650183</v>
+        <v>1.010123930731009</v>
       </c>
       <c r="N21">
-        <v>1.051353267496266</v>
+        <v>0.9930189950430454</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042166267594911</v>
+        <v>0.9530235430939079</v>
       </c>
       <c r="D22">
-        <v>1.048753271617536</v>
+        <v>0.9856791672605003</v>
       </c>
       <c r="E22">
-        <v>1.040287978859205</v>
+        <v>0.9664558573891513</v>
       </c>
       <c r="F22">
-        <v>1.057709787943378</v>
+        <v>0.9890210962115142</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039273205451707</v>
+        <v>1.029836920309672</v>
       </c>
       <c r="J22">
-        <v>1.048950008321402</v>
+        <v>0.9859735910015065</v>
       </c>
       <c r="K22">
-        <v>1.052413766126721</v>
+        <v>1.001539762889496</v>
       </c>
       <c r="L22">
-        <v>1.043980601414639</v>
+        <v>0.9827224629530293</v>
       </c>
       <c r="M22">
-        <v>1.061336909634376</v>
+        <v>1.004813230567214</v>
       </c>
       <c r="N22">
-        <v>1.050439637649466</v>
+        <v>0.9873737865934803</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042782808087952</v>
+        <v>0.9569432654205642</v>
       </c>
       <c r="D23">
-        <v>1.049234627722804</v>
+        <v>0.9886881689794648</v>
       </c>
       <c r="E23">
-        <v>1.04082115843281</v>
+        <v>0.9697091228354162</v>
       </c>
       <c r="F23">
-        <v>1.058235733441618</v>
+        <v>0.9922408631452058</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039425895077247</v>
+        <v>1.031041942139801</v>
       </c>
       <c r="J23">
-        <v>1.049433896597409</v>
+        <v>0.9889866441214387</v>
       </c>
       <c r="K23">
-        <v>1.052826013696927</v>
+        <v>1.004169001572875</v>
       </c>
       <c r="L23">
-        <v>1.044443816126847</v>
+        <v>0.9855781481207964</v>
       </c>
       <c r="M23">
-        <v>1.061794271783112</v>
+        <v>1.007651196890607</v>
       </c>
       <c r="N23">
-        <v>1.050924213102328</v>
+        <v>0.9903911185944444</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045205313759596</v>
+        <v>0.9716948813736006</v>
       </c>
       <c r="D24">
-        <v>1.051125227002039</v>
+        <v>1.000036714667636</v>
       </c>
       <c r="E24">
-        <v>1.042916448118089</v>
+        <v>0.9819809892027073</v>
       </c>
       <c r="F24">
-        <v>1.060302468265398</v>
+        <v>1.004394456303176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040021988342003</v>
+        <v>1.035556179827957</v>
       </c>
       <c r="J24">
-        <v>1.051333591917129</v>
+        <v>1.000327800648512</v>
       </c>
       <c r="K24">
-        <v>1.054443341463421</v>
+        <v>1.014063185585893</v>
       </c>
       <c r="L24">
-        <v>1.04626254961072</v>
+        <v>0.9963321047825464</v>
       </c>
       <c r="M24">
-        <v>1.063589857028029</v>
+        <v>1.018344837363832</v>
       </c>
       <c r="N24">
-        <v>1.0528266062073</v>
+        <v>1.001748380864635</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048007079868412</v>
+        <v>0.987604027611979</v>
       </c>
       <c r="D25">
-        <v>1.05331023067313</v>
+        <v>1.012313750172177</v>
       </c>
       <c r="E25">
-        <v>1.045340404265102</v>
+        <v>0.9952640846367415</v>
       </c>
       <c r="F25">
-        <v>1.062693108164003</v>
+        <v>1.017561951280643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040703415561613</v>
+        <v>1.040377120219329</v>
       </c>
       <c r="J25">
-        <v>1.053527377337078</v>
+        <v>1.012555890353901</v>
       </c>
       <c r="K25">
-        <v>1.056308728328137</v>
+        <v>1.024723871763187</v>
       </c>
       <c r="L25">
-        <v>1.048363249560071</v>
+        <v>1.007936367182838</v>
       </c>
       <c r="M25">
-        <v>1.065663451235051</v>
+        <v>1.029893623225472</v>
       </c>
       <c r="N25">
-        <v>1.055023507054176</v>
+        <v>1.013993835859987</v>
       </c>
     </row>
   </sheetData>
